--- a/lyy/报表.xlsx
+++ b/lyy/报表.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -55,22 +59,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -117,8 +135,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -135,12 +153,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="sty_big_title" xfId="1" hidden="0"/>
     <cellStyle name="sty_title" xfId="2" hidden="0"/>
     <cellStyle name="sty1" xfId="3" hidden="0"/>
@@ -439,16 +457,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="18" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1">
@@ -531,25 +554,25 @@
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
       <c r="T2" s="3" t="n"/>
-      <c r="U2" s="3" t="n"/>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>二审</t>
+        </is>
+      </c>
       <c r="V2" s="3" t="n"/>
       <c r="W2" s="3" t="inlineStr">
         <is>
-          <t>二审</t>
+          <t>执行</t>
         </is>
       </c>
       <c r="X2" s="3" t="n"/>
-      <c r="Y2" s="3" t="n"/>
-      <c r="Z2" s="3" t="inlineStr">
-        <is>
-          <t>执行</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="n"/>
-      <c r="AB2" s="3" t="n"/>
-      <c r="AC2" s="3" t="n"/>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
     </row>
-    <row r="3" ht="27" customHeight="1">
+    <row r="3" ht="36" customHeight="1">
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
@@ -594,484 +617,652 @@
       </c>
       <c r="S3" s="3" t="inlineStr">
         <is>
-          <t>一审情况</t>
+          <t>一审管辖法院</t>
         </is>
       </c>
       <c r="T3" s="3" t="inlineStr">
         <is>
-          <t>执行情况</t>
+          <t>一审主办法官</t>
         </is>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>一审管辖法院</t>
+          <t>二审管辖法院</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
         <is>
-          <t>一审主办法官</t>
+          <t>二审主办法官</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>二审审理情况</t>
+          <t>执行法院</t>
         </is>
       </c>
       <c r="X3" s="3" t="inlineStr">
         <is>
-          <t>管辖法院</t>
-        </is>
-      </c>
-      <c r="Y3" s="3" t="inlineStr">
-        <is>
-          <t>二审主办法官</t>
-        </is>
-      </c>
-      <c r="Z3" s="3" t="inlineStr">
-        <is>
-          <t>执行情况</t>
-        </is>
-      </c>
-      <c r="AA3" s="3" t="inlineStr">
-        <is>
-          <t>执行法院</t>
-        </is>
-      </c>
-      <c r="AB3" s="3" t="inlineStr">
-        <is>
           <t>执行主办法官</t>
         </is>
       </c>
-      <c r="AC3" s="3" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
+      <c r="Y3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr"/>
-      <c r="B4" s="4" t="inlineStr"/>
+      <c r="A4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>南宁保利美圣诞工艺制品有限公司</t>
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>100</v>
+        <v>12366808.33</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1000000</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ghj；juij；sfddafas</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr"/>
+          <t>朱景路3号；朱金路4号；朱槿路5号</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>高源</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>夏宇</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>待开庭</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>自己代理</t>
+        </is>
+      </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>海底捞</t>
+          <t>无</t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>万力</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
-          <t>a01</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>a011</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>a012</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr"/>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
+          <t>2016桂0107民初6203号</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>2019.3.27</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>2019.3.27</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>青秀区法院</t>
+        </is>
+      </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>良好</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr"/>
-      <c r="V4" s="4" t="inlineStr"/>
-      <c r="W4" s="4" t="inlineStr"/>
-      <c r="X4" s="4" t="inlineStr"/>
-      <c r="Y4" s="4" t="inlineStr">
-        <is>
-          <t>我</t>
-        </is>
-      </c>
-      <c r="Z4" s="4" t="inlineStr">
-        <is>
-          <t>良好</t>
-        </is>
-      </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="inlineStr"/>
-      <c r="AC4" s="4" t="inlineStr"/>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="n"/>
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>青秀区法院</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr"/>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="n"/>
+      <c r="A5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>南宁市利水农资有限公司</t>
+        </is>
+      </c>
       <c r="D5" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+        <v>1964025</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>江南房</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>黎德固</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>董啸</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>执行阶段</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>律师代理</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>万立</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>a02</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="inlineStr"/>
-      <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
+          <t>（2016）桂01民初678号</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>（2019）桂0103执3592号</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>2019.7.4</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>2019.7.12</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>江南区法院</t>
+        </is>
+      </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
-      <c r="X5" s="4" t="inlineStr"/>
-      <c r="Y5" s="4" t="inlineStr"/>
-      <c r="Z5" s="4" t="inlineStr">
-        <is>
-          <t>一般</t>
-        </is>
-      </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="inlineStr"/>
-      <c r="AC5" s="4" t="inlineStr"/>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="4" t="n"/>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>青秀区法院</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr"/>
-      <c r="B6" s="4" t="inlineStr"/>
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="5" t="n">
-        <v>300</v>
+        <v>1923720.06</v>
       </c>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>黄丽娜</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>高源</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>二审</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>自己代理</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>谦行</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>万立</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
-          <t>a03</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
+          <t>（2017）桂0103民初908号</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>（2013）南市民二终字第10号</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>2019.7.4</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>2019.7.12</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>江南区法院</t>
+        </is>
+      </c>
       <c r="T6" s="4" t="inlineStr">
         <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
-      <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr"/>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="inlineStr"/>
-      <c r="AC6" s="4" t="inlineStr"/>
+          <t>副婆婆</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>南宁市中院</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>张三三</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr"/>
-      <c r="B7" s="4" t="inlineStr"/>
+      <c r="A7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>广西南宁星舟旅游工艺品有限公司</t>
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr"/>
+        <v>3000000</v>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>南湖名都1号；南湖名都2号</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>骆莹莹</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>夏宇</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>待判决</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>律师代理</t>
+        </is>
+      </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>KFC</t>
+          <t>无</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>流泉</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>b01</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr"/>
-      <c r="O7" s="4" t="inlineStr"/>
-      <c r="P7" s="4" t="inlineStr"/>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
+          <t>2016桂0108民初2084号</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="n"/>
+      <c r="O7" s="4" t="n"/>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>2019.5.6</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>2019.5.6</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>青秀区法院</t>
+        </is>
+      </c>
       <c r="T7" s="4" t="inlineStr">
         <is>
-          <t>差</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
-      <c r="W7" s="4" t="inlineStr"/>
-      <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr"/>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>差</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr"/>
-      <c r="AB7" s="4" t="inlineStr"/>
-      <c r="AC7" s="4" t="inlineStr"/>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="n"/>
+      <c r="V7" s="4" t="n"/>
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>青秀区法院</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="Y7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr"/>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="n"/>
+      <c r="A8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>诉广西南宁科纯贸易有限公司</t>
+        </is>
+      </c>
       <c r="D8" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
+        <v>4966457.3</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>董啸</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>高源</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>二审</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>律师代理</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>鼎业</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>万立</t>
+        </is>
+      </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
-          <t>b02</t>
+          <t>（2015）青民二初字第2871号</t>
         </is>
       </c>
       <c r="N8" s="4" t="inlineStr">
         <is>
-          <t>b021</t>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
+          <t>（2017）桂01民终1029号</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="n"/>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>2015.10.29</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
+        <is>
+          <t>2015.11.9</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>青秀区法院</t>
+        </is>
+      </c>
       <c r="T8" s="4" t="inlineStr">
         <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr"/>
-      <c r="Y8" s="4" t="inlineStr">
-        <is>
-          <t>我</t>
-        </is>
-      </c>
-      <c r="Z8" s="4" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="AA8" s="4" t="inlineStr"/>
-      <c r="AB8" s="4" t="inlineStr"/>
-      <c r="AC8" s="4" t="inlineStr"/>
+          <t>副婆婆</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr">
+        <is>
+          <t>南宁市中院</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>李四四</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="Y8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr"/>
-      <c r="B9" s="4" t="inlineStr"/>
+      <c r="A9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>韩翊、易莹</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>30</v>
+        <v>575575</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">sadfad </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
+          <t>柳州工厂</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>董啸</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>高源</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>执行阶段</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>律师代理</t>
+        </is>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>多来咪</t>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr"/>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t>c01</t>
-        </is>
-      </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t>c011</t>
-        </is>
-      </c>
-      <c r="O9" s="4" t="inlineStr"/>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
+          <t>（2019）桂0107民初6671号</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="n"/>
+      <c r="O9" s="4" t="n"/>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>（2019）桂0103执3591号</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>2019.5.9</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>2019.5.20</t>
+        </is>
+      </c>
+      <c r="S9" s="4" t="inlineStr">
+        <is>
+          <t>柳州市柳南区法院</t>
+        </is>
+      </c>
       <c r="T9" s="4" t="inlineStr">
         <is>
-          <t>差</t>
-        </is>
-      </c>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr">
-        <is>
-          <t>你</t>
-        </is>
-      </c>
-      <c r="Z9" s="4" t="inlineStr">
-        <is>
-          <t>差</t>
-        </is>
-      </c>
-      <c r="AA9" s="4" t="inlineStr"/>
-      <c r="AB9" s="4" t="inlineStr"/>
-      <c r="AC9" s="4" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr"/>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="M10" s="4" t="inlineStr">
-        <is>
-          <t>c02</t>
-        </is>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
-        <is>
-          <t>c021</t>
-        </is>
-      </c>
-      <c r="O10" s="4" t="inlineStr"/>
-      <c r="P10" s="4" t="inlineStr"/>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr">
-        <is>
-          <t>差</t>
-        </is>
-      </c>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr">
-        <is>
-          <t>他</t>
-        </is>
-      </c>
-      <c r="Z10" s="4" t="inlineStr">
-        <is>
-          <t>差</t>
-        </is>
-      </c>
-      <c r="AA10" s="4" t="inlineStr"/>
-      <c r="AB10" s="4" t="inlineStr"/>
-      <c r="AC10" s="4" t="inlineStr"/>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="U9" s="4" t="n"/>
+      <c r="V9" s="4" t="n"/>
+      <c r="W9" s="4" t="inlineStr">
+        <is>
+          <t>青秀区法院</t>
+        </is>
+      </c>
+      <c r="X9" s="4" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="Y9" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="A1:AC1"/>
+  <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1084,7 +1275,8 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="Y2:Y3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>